--- a/Short Findings Revised Capstone.xlsx
+++ b/Short Findings Revised Capstone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kira10\Documents\GitHub\Capstone-Revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF0942-CE88-4F6A-B4D6-D3DBA35D8488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4393A9-9371-4CE2-A5EF-12577A67E77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="2775" windowWidth="19785" windowHeight="18360" xr2:uid="{90950596-63AB-4370-AB12-59F1E2F4231D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{90950596-63AB-4370-AB12-59F1E2F4231D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1238,7 +1238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1298,34 +1298,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1339,6 +1344,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1677,533 +1700,537 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="A21" sqref="A21:A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="98.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="6">
         <v>32.506</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="6">
         <v>0.79920000000000002</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="6">
         <v>0.3503</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="6">
         <v>0.92469999999999997</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="6">
         <v>128</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="6">
         <v>15</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="6">
         <v>0.16550000000000001</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="6">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="7">
         <v>60</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="6"/>
       <c r="F46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="D44:D50"/>
     <mergeCell ref="E3:E18"/>
     <mergeCell ref="B3:B18"/>
     <mergeCell ref="C3:C18"/>
@@ -2212,10 +2239,6 @@
     <mergeCell ref="D3:D18"/>
     <mergeCell ref="D21:D42"/>
     <mergeCell ref="E21:E42"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="D44:D50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
